--- a/3d/BOM.xlsx
+++ b/3d/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://altengroup-my.sharepoint.com/personal/laurent_vromman_alten_com/Documents/Documents/GitHub/homecockpit/3d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{921C85B4-FF76-43C5-94F2-36C2BD40D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C1E7F9-C334-4EFB-928C-5AB7AAE339D6}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{921C85B4-FF76-43C5-94F2-36C2BD40D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F2D94A-E6EB-45FD-984F-766BB543B4B1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6300" windowWidth="29040" windowHeight="17520" xr2:uid="{B094B4DF-3138-4C24-AFF5-3F739443E8FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B094B4DF-3138-4C24-AFF5-3F739443E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>ECC11 1 axe</t>
   </si>
   <si>
-    <t>ECC1 2 axes</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Jaune + bleu ?</t>
+  </si>
+  <si>
+    <t>EC11EBB24C03 2 axes</t>
   </si>
 </sst>
 </file>
@@ -493,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14343ED-1C36-4478-B0E6-7BE715E2C9BC}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -512,31 +512,31 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -764,10 +764,14 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <f>B7+D7*3+E7*5+H7</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -805,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -843,9 +847,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
@@ -857,7 +861,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -892,47 +896,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
       </c>
       <c r="B15">
         <f>B11-B13</f>
